--- a/Discharge/Station1_2021-06-09_1127.xlsx
+++ b/Discharge/Station1_2021-06-09_1127.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tessamd\Desktop\Ecuador Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_A416E8928F630E045B335349C9CA984D21398A2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F9A91C-83D8-104F-95EA-C67C9901AF65}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,16 +369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>60</v>
       </c>
@@ -406,7 +417,7 @@
         <v>4.4454999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>63</v>
       </c>
@@ -425,7 +436,7 @@
         <v>7.1500000000000057E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>70</v>
       </c>
@@ -440,11 +451,11 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>(D4-D3)*(B4/100)*C4</f>
         <v>8.3999999999999928E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>75</v>
       </c>
@@ -463,7 +474,7 @@
         <v>2.7000000000000022E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>80</v>
       </c>
@@ -482,7 +493,7 @@
         <v>9.4499999999999858E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>85</v>
       </c>
@@ -501,7 +512,7 @@
         <v>1.7250000000000015E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>90</v>
       </c>
@@ -520,7 +531,7 @@
         <v>7.5000000000000067E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>95</v>
       </c>
@@ -539,7 +550,7 @@
         <v>5.9999999999999919E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -558,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -568,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -578,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -588,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -598,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -608,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -618,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -628,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -638,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19">
         <f t="shared" si="1"/>
         <v>0</v>
